--- a/Organizador de Declaração de IR.xlsx
+++ b/Organizador de Declaração de IR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documentos\Cursos e Estudos\Santander Excel com Inteligencia Artificial\2 - Trabalhando Com Fórmulas no Excel\4 - Criando Um Organizador de Declaração de Imposto de Renda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Cursos e Estudos\Santander Excel com Inteligencia Artificial\2 - Trabalhando Com Fórmulas no Excel\4 - Criando Um Organizador de Declaração de IR\Organizador-de-Declaracao-de-IR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B2336-A33F-4D4C-B32C-7775DC32B21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEC861-F9D7-4875-B24D-00D6098F3BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="0" xr2:uid="{E30D1525-AA7E-4D03-BAA0-0A2933072F45}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="27" xr2:uid="{E30D1525-AA7E-4D03-BAA0-0A2933072F45}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>NOME</t>
   </si>
@@ -92,9 +92,6 @@
     <t>NÃO</t>
   </si>
   <si>
-    <t>FELIPE SKYWALKER NOBUNAGA</t>
-  </si>
-  <si>
     <t>felipe.sky@hotmail.com</t>
   </si>
   <si>
@@ -309,6 +306,12 @@
   </si>
   <si>
     <t>HOLERITE</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO MONTANA</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
   </si>
 </sst>
 </file>
@@ -753,13 +756,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>689024</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>136136</xdr:rowOff>
+      <xdr:rowOff>147566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1734139</xdr:colOff>
+      <xdr:colOff>1747474</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>182368</xdr:rowOff>
+      <xdr:rowOff>186178</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -814,13 +817,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>186914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>53398</xdr:rowOff>
+      <xdr:rowOff>68638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -896,15 +899,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>8928</xdr:rowOff>
+      <xdr:rowOff>3213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2282355</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>17930</xdr:rowOff>
+      <xdr:rowOff>31265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -983,7 +986,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>188223</xdr:rowOff>
     </xdr:from>
@@ -991,7 +994,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>2282355</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>197224</xdr:rowOff>
+      <xdr:rowOff>193414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1056,15 +1059,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>134435</xdr:rowOff>
+      <xdr:rowOff>145865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2282355</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:rowOff>149150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1131,13 +1134,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>301579</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>140746</xdr:rowOff>
+      <xdr:rowOff>148366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2197136</xdr:colOff>
+      <xdr:colOff>2206661</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>138056</xdr:rowOff>
+      <xdr:rowOff>149486</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1231,13 +1234,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>301579</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>140746</xdr:rowOff>
+      <xdr:rowOff>148366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2068163</xdr:colOff>
+      <xdr:colOff>2060543</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>140746</xdr:rowOff>
+      <xdr:rowOff>148366</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1284,7 +1287,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>960081</xdr:colOff>
+      <xdr:colOff>956271</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>229496</xdr:rowOff>
     </xdr:from>
@@ -1292,7 +1295,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1409661</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>211119</xdr:rowOff>
+      <xdr:rowOff>222549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1413,23 +1416,23 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2508706</xdr:colOff>
+      <xdr:colOff>2388422</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>21135</xdr:rowOff>
+      <xdr:rowOff>16023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2774994</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>15376</xdr:rowOff>
+      <xdr:rowOff>4520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagem 24" descr="Círculo com seta para a esquerda com preenchimento sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        <xdr:cNvPr id="5" name="Imagem 4" descr="Círculo com seta para a esquerda com preenchimento sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE58BCB-167D-0E7D-DE22-10666A54DF3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B45829-EF1B-41C4-921B-3501E4944DA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1441,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:duotone>
             <a:schemeClr val="accent1">
               <a:shade val="45000"/>
@@ -1453,8 +1456,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8407482" y="4306264"/>
-          <a:ext cx="360000" cy="352829"/>
+          <a:off x="8242375" y="4471482"/>
+          <a:ext cx="373237" cy="356610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,13 +1479,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>689024</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>136136</xdr:rowOff>
+      <xdr:rowOff>149471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1734139</xdr:colOff>
+      <xdr:colOff>1749379</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176093</xdr:rowOff>
+      <xdr:rowOff>187523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1537,13 +1540,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>186914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>53398</xdr:rowOff>
+      <xdr:rowOff>72448</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1619,7 +1622,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>226771</xdr:rowOff>
     </xdr:from>
@@ -1692,15 +1695,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>167604</xdr:rowOff>
+      <xdr:rowOff>186654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2282355</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>172122</xdr:rowOff>
+      <xdr:rowOff>187362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1779,9 +1782,9 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>108437</xdr:rowOff>
+      <xdr:rowOff>110342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
@@ -1858,9 +1861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2197136</xdr:colOff>
+      <xdr:colOff>2206661</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:rowOff>111386</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1958,7 +1961,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2068163</xdr:colOff>
+      <xdr:colOff>2060543</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>112956</xdr:rowOff>
     </xdr:to>
@@ -2007,15 +2010,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>960081</xdr:colOff>
+      <xdr:colOff>956271</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:rowOff>194310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1409661</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>185121</xdr:rowOff>
+      <xdr:rowOff>187026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2075,9 +2078,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2772000</xdr:colOff>
+      <xdr:colOff>2777715</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>15376</xdr:rowOff>
+      <xdr:rowOff>34426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2189,62 +2192,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2508706</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>21135</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>15376</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagem 21" descr="Círculo com seta para a esquerda com preenchimento sólido">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71658B6F-286F-6001-528F-22D0545D18D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8407482" y="4996547"/>
-          <a:ext cx="360000" cy="352829"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2315,15 +2262,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2003</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>21135</xdr:rowOff>
+      <xdr:rowOff>28784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>360000</xdr:colOff>
+      <xdr:colOff>377145</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>15376</xdr:rowOff>
+      <xdr:rowOff>34426</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2355,8 +2302,64 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3030071" y="4996547"/>
-          <a:ext cx="360000" cy="352829"/>
+          <a:off x="3076897" y="5425537"/>
+          <a:ext cx="365617" cy="352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2417222</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3780</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8" descr="Círculo com seta para a esquerda com preenchimento sólido">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F99067-754A-4CEC-9CCC-CED3D787D6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:duotone>
+            <a:schemeClr val="accent1">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8271175" y="5422302"/>
+          <a:ext cx="365617" cy="354705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,13 +2381,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>689024</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>136136</xdr:rowOff>
+      <xdr:rowOff>143756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1734139</xdr:colOff>
+      <xdr:colOff>1743664</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>207469</xdr:rowOff>
+      <xdr:rowOff>216994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2439,13 +2442,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>185009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>53398</xdr:rowOff>
+      <xdr:rowOff>64828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2521,15 +2524,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>25065</xdr:rowOff>
+      <xdr:rowOff>30780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2282355</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:rowOff>27454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2594,7 +2597,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>188222</xdr:rowOff>
     </xdr:from>
@@ -2602,7 +2605,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>2282355</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>181087</xdr:rowOff>
+      <xdr:rowOff>186802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2667,7 +2670,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114711</xdr:rowOff>
     </xdr:from>
@@ -2675,7 +2678,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>2282355</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
+      <xdr:rowOff>111387</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2756,13 +2759,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>301579</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>99508</xdr:rowOff>
+      <xdr:rowOff>107128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2197136</xdr:colOff>
+      <xdr:colOff>2202851</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2856,13 +2859,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>301579</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>99508</xdr:rowOff>
+      <xdr:rowOff>107128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2068163</xdr:colOff>
+      <xdr:colOff>2062448</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>99508</xdr:rowOff>
+      <xdr:rowOff>107128</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2909,9 +2912,9 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>960081</xdr:colOff>
+      <xdr:colOff>956271</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>185009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
@@ -3044,9 +3047,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>360000</xdr:colOff>
+      <xdr:colOff>369525</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>122953</xdr:rowOff>
+      <xdr:rowOff>117238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3423,46 +3426,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F148BE-C988-4850-9DDF-3A7918B2364B}">
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFC29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="4" width="41.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="16383" width="8.88671875" hidden="1"/>
-    <col min="16384" max="16384" width="6.109375" hidden="1"/>
+    <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="16383" width="8.85546875" hidden="1"/>
+    <col min="16384" max="16384" width="6.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="C3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
@@ -3470,47 +3473,47 @@
         <v>22445556665</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="15">
-        <v>33144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="13">
-        <v>36985721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>987456321</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>1131713388</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
@@ -3534,15 +3537,15 @@
         <v>11948697832</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
         <v>10</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
@@ -3566,17 +3569,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:4" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="3:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
@@ -3597,155 +3600,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08306C04-B288-4236-9BFE-247BD1C49DAD}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="4" width="41.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" hidden="1"/>
+    <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="C3" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="30">
         <f>SUM($D$11,$D$16,$D$21)</f>
-        <v>7000000</v>
+        <v>7200000</v>
       </c>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="21">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="2" t="s">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="21">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D16" s="21">
         <v>1500000</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D21" s="21">
         <v>5000000</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:4" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:4" ht="10.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
@@ -3771,10 +3774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667715C2-FB0E-4978-8529-FDB1C9A47684}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -3782,281 +3785,287 @@
       </extLst>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="4" width="28.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" hidden="1"/>
+    <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="C3" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="12" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="E9" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="23">
         <v>45815</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="25">
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="26"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="23">
+        <v>45786</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="26"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="26"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="26"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="26"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="26"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="26"/>
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="26"/>
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
     </row>
-    <row r="19" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="26"/>
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="26"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="26"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="26"/>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="26"/>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
     </row>
-    <row r="24" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="26"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="26"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="26"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
     </row>
-    <row r="27" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="26"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25"/>
     </row>
-    <row r="28" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="26"/>
       <c r="D28" s="24"/>
       <c r="E28" s="25"/>
     </row>
-    <row r="29" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
     </row>
-    <row r="30" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
     </row>
-    <row r="31" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
     </row>
-    <row r="32" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -4088,264 +4097,264 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
